--- a/Lesson/Day-09 (10-05-2024)/Day-08 (10-05-2024) Translator-Lookup-Transpose.xlsx
+++ b/Lesson/Day-09 (10-05-2024)/Day-08 (10-05-2024) Translator-Lookup-Transpose.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIG\SupriyaSingh\Office365\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{20E1EABB-ED66-45C8-9902-9F2391A422CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D58916-807B-4324-AAC8-8AE345F354D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translate" sheetId="1" r:id="rId1"/>
     <sheet name="Sort" sheetId="2" r:id="rId2"/>
     <sheet name="VLookup" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="Product" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sort!$A$1:$N$1001</definedName>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10036" uniqueCount="2031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10168" uniqueCount="2096">
   <si>
     <t>सुप्रिया</t>
   </si>
@@ -6123,17 +6126,214 @@
   </si>
   <si>
     <t>Capital</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Moglai</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Camry</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>Altima</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Corolla</t>
+  </si>
+  <si>
+    <t>Civic</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>F-150</t>
+  </si>
+  <si>
+    <t>Chevrolet</t>
+  </si>
+  <si>
+    <t>Silverado</t>
+  </si>
+  <si>
+    <t>Impala</t>
+  </si>
+  <si>
+    <t>Malibu</t>
+  </si>
+  <si>
+    <t>Escape</t>
+  </si>
+  <si>
+    <t>Mustang</t>
+  </si>
+  <si>
+    <t>CRV</t>
+  </si>
+  <si>
+    <t>Maxima</t>
+  </si>
+  <si>
+    <t>Fusion</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Charger</t>
+  </si>
+  <si>
+    <t>Make-Model</t>
+  </si>
+  <si>
+    <t>Make is Honda</t>
+  </si>
+  <si>
+    <t>Make is Toyota</t>
+  </si>
+  <si>
+    <t>Make is Nissan</t>
+  </si>
+  <si>
+    <t>Make is Ford</t>
+  </si>
+  <si>
+    <t>Make is Chevrolet</t>
+  </si>
+  <si>
+    <t>Make is Dodge</t>
+  </si>
+  <si>
+    <t>Purna</t>
+  </si>
+  <si>
+    <t>Chandra</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>Chinmaya</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Maharana</t>
+  </si>
+  <si>
+    <t>Sanghamitra</t>
+  </si>
+  <si>
+    <t>Behera</t>
+  </si>
+  <si>
+    <t>Lopamudra</t>
+  </si>
+  <si>
+    <t>Sahoo</t>
+  </si>
+  <si>
+    <t>Manohar</t>
+  </si>
+  <si>
+    <t>Mohapatra</t>
+  </si>
+  <si>
+    <t>Laxminarayan</t>
+  </si>
+  <si>
+    <t>Rout</t>
+  </si>
+  <si>
+    <t>Anuttam</t>
+  </si>
+  <si>
+    <t>Muduli</t>
+  </si>
+  <si>
+    <t>Satyabrata</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Goutam</t>
+  </si>
+  <si>
+    <t>Biharigosain</t>
+  </si>
+  <si>
+    <t>Soumya</t>
+  </si>
+  <si>
+    <t>Ranjan</t>
+  </si>
+  <si>
+    <t>Mishra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\);&quot;$&quot;0_)"/>
-    <numFmt numFmtId="169" formatCode="#,##0%_);\(#,##0%\);0%_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\);&quot;$&quot;0_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0%_);\(#,##0%\);0%_)"/>
+    <numFmt numFmtId="167" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6163,8 +6363,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6180,6 +6395,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6305,10 +6526,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6316,14 +6538,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6338,8 +6560,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6651,7 +6887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -6675,7 +6911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50750,11 +50986,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -51290,21 +51526,875 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>1981</v>
       </c>
       <c r="C34" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>2030</v>
       </c>
       <c r="C35" t="str">
         <f>HLOOKUP(C34,B31:Y32,2,FALSE)</f>
-        <v>London</v>
+        <v>Washington-DC</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B38">
+        <f>VLOOKUP(A38,Product!A1:B2,2,FALSE)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B39">
+        <f>VLOOKUP(A39,Product!A1:B2,2,FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED40EB2-0C7A-4885-ADE3-B0571F7949B1}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E2" s="21">
+        <v>63512</v>
+      </c>
+      <c r="F2" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G2" s="22">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="23">
+        <f>F2-G2</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E3" s="21">
+        <v>95135</v>
+      </c>
+      <c r="F3" s="22">
+        <v>2500</v>
+      </c>
+      <c r="G3" s="22">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="23">
+        <f t="shared" ref="H3:H25" si="0">F3-G3</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E4" s="21">
+        <v>101354</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="22">
+        <v>1500</v>
+      </c>
+      <c r="H4" s="23">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E5" s="21">
+        <v>75006</v>
+      </c>
+      <c r="F5" s="22">
+        <v>2198</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1900</v>
+      </c>
+      <c r="H5" s="23">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E6" s="21">
+        <v>69847</v>
+      </c>
+      <c r="F6" s="22">
+        <v>3826</v>
+      </c>
+      <c r="G6" s="22">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" si="0"/>
+        <v>826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E7" s="21">
+        <v>55233</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2970</v>
+      </c>
+      <c r="G7" s="22">
+        <v>2500</v>
+      </c>
+      <c r="H7" s="23">
+        <f t="shared" si="0"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E8" s="21">
+        <v>87278</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2224</v>
+      </c>
+      <c r="G8" s="22">
+        <v>2100</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E9" s="21">
+        <v>130684</v>
+      </c>
+      <c r="F9" s="22">
+        <v>2798</v>
+      </c>
+      <c r="G9" s="22">
+        <v>2200</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="0"/>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E10" s="21">
+        <v>59169</v>
+      </c>
+      <c r="F10" s="22">
+        <v>2160</v>
+      </c>
+      <c r="G10" s="22">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E11" s="21">
+        <v>138739</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2723</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1900</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" si="0"/>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E12" s="21">
+        <v>89073</v>
+      </c>
+      <c r="F12" s="22">
+        <v>3950</v>
+      </c>
+      <c r="G12" s="22">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E13" s="21">
+        <v>109231</v>
+      </c>
+      <c r="F13" s="22">
+        <v>4959</v>
+      </c>
+      <c r="G13" s="22">
+        <v>4500</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="0"/>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E14" s="21">
+        <v>87675</v>
+      </c>
+      <c r="F14" s="22">
+        <v>3791</v>
+      </c>
+      <c r="G14" s="22">
+        <v>3500</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="0"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E15" s="21">
+        <v>140811</v>
+      </c>
+      <c r="F15" s="22">
+        <v>2340</v>
+      </c>
+      <c r="G15" s="22">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="23">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E16" s="21">
+        <v>139300</v>
+      </c>
+      <c r="F16" s="22">
+        <v>3361</v>
+      </c>
+      <c r="G16" s="22">
+        <v>3000</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E17" s="21">
+        <v>63259</v>
+      </c>
+      <c r="F17" s="22">
+        <v>3196</v>
+      </c>
+      <c r="G17" s="22">
+        <v>3050</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E18" s="21">
+        <v>40826</v>
+      </c>
+      <c r="F18" s="22">
+        <v>4397</v>
+      </c>
+      <c r="G18" s="22">
+        <v>3900</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="0"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E19" s="21">
+        <v>41560</v>
+      </c>
+      <c r="F19" s="22">
+        <v>3706</v>
+      </c>
+      <c r="G19" s="22">
+        <v>3100</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="0"/>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E20" s="21">
+        <v>49326</v>
+      </c>
+      <c r="F20" s="22">
+        <v>4745</v>
+      </c>
+      <c r="G20" s="22">
+        <v>4100</v>
+      </c>
+      <c r="H20" s="23">
+        <f t="shared" si="0"/>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E21" s="21">
+        <v>101856</v>
+      </c>
+      <c r="F21" s="22">
+        <v>2914</v>
+      </c>
+      <c r="G21" s="22">
+        <v>2500</v>
+      </c>
+      <c r="H21" s="23">
+        <f t="shared" si="0"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E22" s="21">
+        <v>42542</v>
+      </c>
+      <c r="F22" s="22">
+        <v>2659</v>
+      </c>
+      <c r="G22" s="22">
+        <v>2100</v>
+      </c>
+      <c r="H22" s="23">
+        <f t="shared" si="0"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E23" s="21">
+        <v>34853</v>
+      </c>
+      <c r="F23" s="22">
+        <v>4349</v>
+      </c>
+      <c r="G23" s="22">
+        <v>3500</v>
+      </c>
+      <c r="H23" s="23">
+        <f t="shared" si="0"/>
+        <v>849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E24" s="21">
+        <v>58173</v>
+      </c>
+      <c r="F24" s="22">
+        <v>4252</v>
+      </c>
+      <c r="G24" s="22">
+        <v>4000</v>
+      </c>
+      <c r="H24" s="23">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E25" s="21">
+        <v>136775</v>
+      </c>
+      <c r="F25" s="22">
+        <v>2090</v>
+      </c>
+      <c r="G25" s="22">
+        <v>1800</v>
+      </c>
+      <c r="H25" s="23">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56D23A0-ECF5-44EB-8FFB-AB2DDFCA5B46}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18820A2-8D3C-49A9-822E-41A9010B6852}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B1" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B2" s="19">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
